--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347969.678259475</v>
+        <v>284268.3475264956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13407921.04590333</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10500601.02362874</v>
+        <v>8597422.748341989</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7920270.647819594</v>
+        <v>8825370.202924402</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>92.6649492891022</v>
+        <v>123.017299287606</v>
       </c>
       <c r="X2" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>89.71475821016372</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.56947841277972</v>
+        <v>77.29308816345807</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>52.04897529147662</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="X3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>21.41405905276496</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -898,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="G5" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="H5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>83.13719072031593</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>123.017299287606</v>
       </c>
     </row>
     <row r="6">
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="U6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>106.5671510266615</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>21.41405905276496</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>127.429877995854</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>6.396723986041374</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>127.429877995854</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>48.95155879269635</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>11.08421257821694</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>187.5255871663199</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>165.1725371760945</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>187.5255871663199</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.5255871663199</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.1725371760944</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>187.5255871663199</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
-        <v>187.5255871663199</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>187.5255871663199</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.252983880023</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>52.21594625443444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>187.5255871663199</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>187.5255871663199</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>52.86979633144449</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.5255871663199</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883145</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
-        <v>187.5255871663199</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5255871663199</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>165.1725371760944</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.5255871663199</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>115.0138334144182</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>126.749822661279</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>210.6046526660748</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>22.46279061553161</v>
       </c>
       <c r="F19" t="n">
-        <v>141.1446905726948</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>153.987723415189</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>229.7259207147124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247742</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>19.78589926923118</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>82.28953722264379</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>32.97988876732324</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>187.1115933738219</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.89700561060579</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>81.4608434426853</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>99.50249420969934</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>161.1213657616683</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>20.95866062610972</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>44.75951530680759</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>310.8331573064578</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851115</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>54.45803047044427</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>83.32727861849574</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>188.6059442291525</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>264.6002800864884</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>22.8176635931642</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>63.73277769123396</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>25.87859906451739</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>18.0473527806512</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>186.8250998946402</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>224.7411810187697</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U40" t="n">
-        <v>81.4608434426853</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>36.06002841357686</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>188.6059442291535</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>30.21666592876847</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>53.54735467376847</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>215.2994773637963</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>44.28190385754367</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>160.8915086215178</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>87.62154955555337</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.0141548210092</v>
+        <v>463.1245860845262</v>
       </c>
       <c r="C2" t="n">
-        <v>7.413195943128176</v>
+        <v>314.7951708434062</v>
       </c>
       <c r="D2" t="n">
-        <v>7.413195943128176</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="E2" t="n">
-        <v>7.413195943128176</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="F2" t="n">
-        <v>7.413195943128176</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="G2" t="n">
-        <v>7.413195943128176</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="H2" t="n">
-        <v>7.413195943128176</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="I2" t="n">
-        <v>7.413195943128176</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821451</v>
+        <v>53.10181779183029</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940374</v>
+        <v>141.3070323458398</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056148</v>
+        <v>271.121766306626</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018261</v>
+        <v>407.6508467588566</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037292</v>
+        <v>523.2361246735312</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="T2" t="n">
-        <v>277.0588382785278</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="U2" t="n">
-        <v>277.0588382785278</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="V2" t="n">
-        <v>277.0588382785278</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="W2" t="n">
-        <v>183.4578794006468</v>
+        <v>463.1245860845262</v>
       </c>
       <c r="X2" t="n">
-        <v>101.0141548210092</v>
+        <v>463.1245860845262</v>
       </c>
       <c r="Y2" t="n">
-        <v>101.0141548210092</v>
+        <v>463.1245860845262</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.03416383218244</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K3" t="n">
-        <v>28.29609765201163</v>
+        <v>51.36582106616825</v>
       </c>
       <c r="L3" t="n">
-        <v>96.51643516483841</v>
+        <v>150.9598290415669</v>
       </c>
       <c r="M3" t="n">
-        <v>188.2547349610496</v>
+        <v>286.5382069752474</v>
       </c>
       <c r="N3" t="n">
-        <v>279.9930347572608</v>
+        <v>431.9158668530691</v>
       </c>
       <c r="O3" t="n">
-        <v>370.6597971564088</v>
+        <v>550.1875401335679</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q3" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R3" t="n">
-        <v>285.2360815879445</v>
+        <v>509.3106579270999</v>
       </c>
       <c r="S3" t="n">
-        <v>285.2360815879445</v>
+        <v>360.9812426859799</v>
       </c>
       <c r="T3" t="n">
-        <v>285.2360815879445</v>
+        <v>212.6518274448598</v>
       </c>
       <c r="U3" t="n">
-        <v>285.2360815879445</v>
+        <v>212.6518274448598</v>
       </c>
       <c r="V3" t="n">
-        <v>285.2360815879445</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="W3" t="n">
-        <v>285.2360815879445</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="X3" t="n">
-        <v>191.6351227100635</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Y3" t="n">
-        <v>98.03416383218244</v>
+        <v>11.74768968709671</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128176</v>
+        <v>14.12595803543247</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128176</v>
+        <v>19.89179156510284</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>432.6813068454352</v>
+        <v>463.1245860845263</v>
       </c>
       <c r="C5" t="n">
-        <v>319.4361956081386</v>
+        <v>463.1245860845263</v>
       </c>
       <c r="D5" t="n">
-        <v>319.4361956081386</v>
+        <v>314.7951708434063</v>
       </c>
       <c r="E5" t="n">
-        <v>319.4361956081386</v>
+        <v>314.7951708434063</v>
       </c>
       <c r="F5" t="n">
-        <v>319.4361956081386</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="G5" t="n">
-        <v>206.191084370842</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="H5" t="n">
-        <v>92.94597313354534</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="I5" t="n">
-        <v>8.969012809993892</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="J5" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K5" t="n">
-        <v>32.11753523687554</v>
+        <v>53.10181779183036</v>
       </c>
       <c r="L5" t="n">
-        <v>97.73708609773416</v>
+        <v>141.3070323458398</v>
       </c>
       <c r="M5" t="n">
-        <v>202.4209174083929</v>
+        <v>271.1217663066261</v>
       </c>
       <c r="N5" t="n">
-        <v>313.4124509320674</v>
+        <v>407.6508467588568</v>
       </c>
       <c r="O5" t="n">
-        <v>404.8833474416797</v>
+        <v>523.2361246735313</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="Q5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="R5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="S5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="T5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="U5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="V5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="W5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="X5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="Y5" t="n">
-        <v>432.6813068454352</v>
+        <v>463.1245860845263</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108.7153067878047</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="C6" t="n">
-        <v>108.7153067878047</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="D6" t="n">
-        <v>108.7153067878047</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="E6" t="n">
-        <v>108.7153067878047</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="F6" t="n">
-        <v>108.7153067878047</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="G6" t="n">
-        <v>108.7153067878047</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="H6" t="n">
-        <v>8.969012809993892</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="I6" t="n">
-        <v>8.969012809993892</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="J6" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K6" t="n">
-        <v>36.22166818534551</v>
+        <v>51.36582106616825</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1887676792232</v>
+        <v>150.9598290415669</v>
       </c>
       <c r="M6" t="n">
-        <v>230.1803012028977</v>
+        <v>286.5382069752474</v>
       </c>
       <c r="N6" t="n">
-        <v>287.4309731640694</v>
+        <v>431.9158668530691</v>
       </c>
       <c r="O6" t="n">
-        <v>387.4830745953194</v>
+        <v>550.1875401335679</v>
       </c>
       <c r="P6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="Q6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="R6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="S6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="T6" t="n">
-        <v>335.205529262398</v>
+        <v>439.0550691137154</v>
       </c>
       <c r="U6" t="n">
-        <v>221.9604180251014</v>
+        <v>439.0550691137154</v>
       </c>
       <c r="V6" t="n">
-        <v>108.7153067878047</v>
+        <v>290.7256538725953</v>
       </c>
       <c r="W6" t="n">
-        <v>108.7153067878047</v>
+        <v>142.3962386314753</v>
       </c>
       <c r="X6" t="n">
-        <v>108.7153067878047</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="Y6" t="n">
-        <v>108.7153067878047</v>
+        <v>34.75265173585761</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="L7" t="n">
-        <v>8.969012809993892</v>
+        <v>14.12595803543248</v>
       </c>
       <c r="M7" t="n">
-        <v>8.969012809993892</v>
+        <v>19.89179156510285</v>
       </c>
       <c r="N7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="O7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="P7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="R7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="S7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="T7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="U7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="V7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="W7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="X7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.74768968709671</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>449.9835782035085</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C8" t="n">
-        <v>449.9835782035085</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D8" t="n">
-        <v>449.9835782035085</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E8" t="n">
-        <v>449.9835782035085</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F8" t="n">
-        <v>303.8470563135668</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G8" t="n">
-        <v>157.7105344236251</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>11.57401253368338</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>51.79022575657168</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>138.5837562783352</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8277197508551</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>401.7606130061291</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>515.8386566132575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>578.7006266841692</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>578.7006266841692</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T8" t="n">
-        <v>578.7006266841692</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U8" t="n">
-        <v>449.9835782035085</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="V8" t="n">
-        <v>449.9835782035085</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W8" t="n">
-        <v>449.9835782035085</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X8" t="n">
-        <v>449.9835782035085</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y8" t="n">
-        <v>449.9835782035085</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.57401253368338</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="C9" t="n">
-        <v>11.57401253368338</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="D9" t="n">
-        <v>11.57401253368338</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="E9" t="n">
-        <v>11.57401253368338</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="F9" t="n">
-        <v>11.57401253368338</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="G9" t="n">
-        <v>11.57401253368338</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="H9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J9" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>50.41925783498756</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>148.9740250987618</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>283.3396581397943</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>386.8913402620005</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>504.0242257254407</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>578.7006266841692</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>432.5641047942274</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>286.4275829042857</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U9" t="n">
-        <v>140.291061014344</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V9" t="n">
-        <v>11.57401253368338</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W9" t="n">
-        <v>11.57401253368338</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X9" t="n">
-        <v>11.57401253368338</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.57401253368338</v>
+        <v>132.3969746333037</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>13.35570305153742</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>18.49252890534889</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>31.36473842767504</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>22.77018685511464</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>22.77018685511464</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.77018685511464</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>22.77018685511464</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>22.77018685511464</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>22.77018685511464</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>22.77018685511464</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>22.77018685511464</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.77018685511464</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.00204697330559</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>15.00204697330559</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>15.00204697330559</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>15.00204697330559</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>15.00204697330559</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678495</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058944</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079186</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644754</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123828</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985582</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020263</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652795</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652795</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652795</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>750.1023486652795</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>750.1023486652795</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>583.2614020227597</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W11" t="n">
-        <v>583.2614020227597</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X11" t="n">
-        <v>393.841617006275</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.4218319897903</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.00204697330559</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>15.00204697330559</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>15.00204697330559</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>15.00204697330559</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>15.00204697330559</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>15.00204697330559</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>15.00204697330559</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330559</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024208</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772649</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140243</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>512.50005875466</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476347</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>739.598998701706</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652795</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652795</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652795</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652795</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>560.6825636487947</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>371.26277863231</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>371.26277863231</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>181.8429936158252</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.8429936158252</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.00204697330559</v>
+        <v>511.2489900899275</v>
       </c>
       <c r="C13" t="n">
-        <v>15.00204697330559</v>
+        <v>511.2489900899275</v>
       </c>
       <c r="D13" t="n">
-        <v>15.00204697330559</v>
+        <v>361.1323506775917</v>
       </c>
       <c r="E13" t="n">
-        <v>15.00204697330559</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>15.00204697330559</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>15.00204697330559</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330559</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230175</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170716</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396334</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702828987</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702828987</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W13" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X13" t="n">
-        <v>15.00204697330559</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.00204697330559</v>
+        <v>692.8974549201672</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>560.6825636487947</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C14" t="n">
-        <v>560.6825636487947</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D14" t="n">
-        <v>560.6825636487947</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E14" t="n">
-        <v>371.26277863231</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F14" t="n">
-        <v>371.26277863231</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>181.8429936158252</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678489</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058939</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079184</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644754</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123828</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985582</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020263</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652795</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652795</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652795</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652795</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>750.1023486652795</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>750.1023486652795</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>750.1023486652795</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="X14" t="n">
-        <v>750.1023486652795</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y14" t="n">
-        <v>560.6825636487947</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.00204697330559</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>15.00204697330559</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>15.00204697330559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>15.00204697330559</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>15.00204697330559</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>15.00204697330559</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330559</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330559</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024208</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772649</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140244</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546598</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476347</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>739.598998701706</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652795</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652795</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652795</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>750.1023486652795</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>750.1023486652795</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>560.6825636487947</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>371.26277863231</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4218319897903</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.00204697330559</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330559</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330559</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230175</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170716</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396334</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828987</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828987</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U16" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V16" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W16" t="n">
-        <v>15.00204697330559</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X16" t="n">
-        <v>15.00204697330559</v>
+        <v>403.4802848832067</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.00204697330559</v>
+        <v>182.6877057396765</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796274</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392158</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324653</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218345</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218345</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450755</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180641</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919561</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943749</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>376.785347575338</v>
+        <v>403.7945880458108</v>
       </c>
       <c r="C19" t="n">
-        <v>376.785347575338</v>
+        <v>403.7945880458108</v>
       </c>
       <c r="D19" t="n">
-        <v>376.785347575338</v>
+        <v>403.7945880458108</v>
       </c>
       <c r="E19" t="n">
-        <v>376.785347575338</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181855</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V19" t="n">
-        <v>666.2025176122986</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W19" t="n">
-        <v>376.785347575338</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="X19" t="n">
-        <v>376.785347575338</v>
+        <v>403.7945880458108</v>
       </c>
       <c r="Y19" t="n">
-        <v>376.785347575338</v>
+        <v>403.7945880458108</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1190.154071768027</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C20" t="n">
-        <v>1190.154071768027</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D20" t="n">
-        <v>1190.154071768027</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
         <v>364.0957168234162</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392465</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y20" t="n">
-        <v>1576.753911832149</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="21">
@@ -5819,10 +5819,10 @@
         <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5946,16 +5946,16 @@
         <v>699.1203903877109</v>
       </c>
       <c r="V22" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W22" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="X22" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818241</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796261</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C23" t="n">
-        <v>552.8079389392144</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D23" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6174,25 +6174,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438285</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379416</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W25" t="n">
-        <v>377.0996507379416</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X25" t="n">
-        <v>377.0996507379416</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.3070715944115</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2513.328941997114</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>2139.863183736034</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C28" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D28" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E28" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U28" t="n">
-        <v>631.7841389438285</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V28" t="n">
-        <v>377.0996507379416</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W28" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X28" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1681.836054204827</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>1681.836054204827</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>1323.570355598077</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>937.7821029998324</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>526.7961982102249</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G29" t="n">
-        <v>111.7237480552214</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X29" t="n">
-        <v>2071.975386180639</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y29" t="n">
-        <v>1681.836054204827</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.4564109463977</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C31" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6645,28 +6645,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>836.718037516674</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X31" t="n">
-        <v>692.8974549201675</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y31" t="n">
-        <v>472.1048757766374</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2196.097994299123</v>
+        <v>1544.306735920717</v>
       </c>
       <c r="C32" t="n">
-        <v>1827.135477358711</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D32" t="n">
-        <v>1468.86977875196</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E32" t="n">
-        <v>1083.081526153716</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F32" t="n">
-        <v>672.0956213641086</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
-        <v>257.0231712091051</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2694.511666221731</v>
       </c>
       <c r="X32" t="n">
-        <v>2972.837166339056</v>
+        <v>2321.045907960651</v>
       </c>
       <c r="Y32" t="n">
-        <v>2582.697834363245</v>
+        <v>1930.906575984839</v>
       </c>
     </row>
     <row r="33">
@@ -6755,70 +6755,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>403.4802848832069</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>403.4802848832069</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>403.4802848832069</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>403.4802848832069</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>403.4802848832069</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7774482579258</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>89.56026147578362</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
         <v>176.6457242372933</v>
@@ -6867,43 +6867,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W34" t="n">
-        <v>631.4698357812242</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X34" t="n">
-        <v>403.4802848832069</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y34" t="n">
-        <v>403.4802848832069</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3093.488074938325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2740.71941966821</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.5121164321834</v>
@@ -7022,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>403.7945880458111</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>234.8584051179042</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>84.74176570556847</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>84.74176570556847</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>84.74176570556847</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
@@ -7128,19 +7128,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>403.7945880458111</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y37" t="n">
-        <v>403.7945880458111</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796261</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392144</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>364.0957168234162</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7174,7 +7174,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7207,19 +7207,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7244,10 +7244,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7362,16 +7362,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U40" t="n">
-        <v>838.6033255730482</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V40" t="n">
-        <v>583.9188373671614</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W40" t="n">
-        <v>294.5016673302007</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X40" t="n">
         <v>66.51211643218342</v>
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1127.748203495403</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>758.7856865549918</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>400.5199879482413</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796417</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>1904.487375535337</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1514.348043559525</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.9536817013565</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>541.9536817013565</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>391.8370422890207</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>243.9239487066276</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>97.03400120871723</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U43" t="n">
-        <v>541.9536817013565</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V43" t="n">
-        <v>541.9536817013565</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W43" t="n">
-        <v>541.9536817013565</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X43" t="n">
-        <v>541.9536817013565</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y43" t="n">
-        <v>541.9536817013565</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1422.200456328343</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C44" t="n">
-        <v>1053.237939387932</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>694.9722407811812</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>694.9722407811812</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>283.9863359915736</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7663,7 +7663,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923659</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653545</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392465</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y44" t="n">
-        <v>1808.800296392465</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>3163.089146233901</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U46" t="n">
-        <v>3163.089146233901</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V46" t="n">
-        <v>3163.089146233901</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W46" t="n">
-        <v>2873.67197619694</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X46" t="n">
-        <v>2873.67197619694</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y46" t="n">
-        <v>2652.87939705341</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -22549,28 +22549,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>272.6079424819054</v>
+        <v>218.4267706822987</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319741</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>235.084248983553</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.4631744246258</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6353766150897</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>139.5561335235496</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>100.0310828299331</v>
+        <v>20.55555711582389</v>
       </c>
       <c r="S2" t="n">
-        <v>167.1010256612668</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>122.3782128463251</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1984878605957</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>256.5760194283108</v>
+        <v>226.223669429807</v>
       </c>
       <c r="X2" t="n">
-        <v>288.1118133446278</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>82.99374077815202</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3592641379443</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>102.729632124056</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101605001</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516773</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,31 +22670,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>153.4011028494393</v>
+        <v>4.378130057857021</v>
       </c>
       <c r="T3" t="n">
-        <v>196.197498299121</v>
+        <v>48.87899782081573</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8766285924705</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>180.7516118579487</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>104.8488620722108</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1080359143753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>113.0177464882022</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22713,55 +22713,55 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>125.0199035938042</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1658146852775</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>154.8907084131551</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555885</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547948</v>
+        <v>28.07357741546446</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092828</v>
+        <v>21.72895798776025</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026839</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924651</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>21.823262646183</v>
+        <v>7.935701265474336</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638606</v>
+        <v>26.04487966482523</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605685</v>
+        <v>8.838436914954002</v>
       </c>
       <c r="R4" t="n">
-        <v>140.1909870721275</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>209.6362282325312</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>224.4198858246887</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>253.1602316460839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319741</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>260.0299246530026</v>
       </c>
       <c r="G5" t="n">
-        <v>301.2760442195641</v>
+        <v>266.3980159715228</v>
       </c>
       <c r="H5" t="n">
-        <v>207.7600497819524</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>53.54793503871205</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J5" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3531516584621</v>
+        <v>20.55555711582389</v>
       </c>
       <c r="S5" t="n">
-        <v>165.4040387101212</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T5" t="n">
-        <v>214.717169359623</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1925302541847</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>263.2206393684476</v>
       </c>
     </row>
     <row r="6">
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3194191323308</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H6" t="n">
-        <v>3.595982216019351</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>64.26286446312977</v>
+        <v>51.4739594949605</v>
       </c>
       <c r="J6" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,28 +22907,28 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.095592888813</v>
+        <v>31.77141835213725</v>
       </c>
       <c r="S6" t="n">
-        <v>152.6609993460486</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T6" t="n">
-        <v>83.92423484016754</v>
+        <v>48.8789978208157</v>
       </c>
       <c r="U6" t="n">
-        <v>113.7613470855985</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V6" t="n">
-        <v>120.6879270245016</v>
+        <v>85.95446606071641</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>104.8488620722107</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>99.20583417681601</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1324099710516</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>154.5937101357652</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>129.630951895051</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>66.29456574971167</v>
+        <v>28.07357741546446</v>
       </c>
       <c r="K7" t="n">
-        <v>29.26310570632462</v>
+        <v>21.72895798776025</v>
       </c>
       <c r="L7" t="n">
-        <v>3.613446413741165</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4.341129883412066</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>17.10165812996878</v>
+        <v>7.935701265474336</v>
       </c>
       <c r="P7" t="n">
-        <v>33.88793923037925</v>
+        <v>26.04487966482523</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.61152319847201</v>
+        <v>8.838436914954002</v>
       </c>
       <c r="R7" t="n">
-        <v>138.6889896488451</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>209.0540751673406</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>224.2771565911783</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>197.1705942993298</v>
       </c>
     </row>
     <row r="8">
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>262.2008890706692</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>268.578016356852</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>173.8095431397699</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760548</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
-        <v>7.091680627731961</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>86.83958259249187</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3156188332455</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>214.1238810212347</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>123.7518097530032</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>321.3555344840935</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.76616344642424</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818574</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>77.59326173053483</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>6.638896330325053</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>51.06944934699766</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>81.19407977320594</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>105.3707091535713</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>156.731136984608</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.07161528826</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8026899798254</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>61.99638167634127</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
-        <v>11.11565634558567</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>26.53509868619516</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.52079753307214</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>207.9945896499623</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0173974919776</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2688822253891</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.2082544971607</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>316.8938261062223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4438810562068</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>162.5797212940404</v>
+        <v>159.6364462020386</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>182.2055135121492</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>198.7123514897337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.360646473772903</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377106</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>45.2749999831054</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>18.24739803715761</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,34 +23415,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0.1809787665461897</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159726</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>173.4937091346027</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>194.4047829059419</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>225.5722460637382</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>151.7212889301279</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>296.3711723859685</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>198.7123514897337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>45.2749999831054</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>64.16939599459974</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>40.60044802738304</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.15710861098449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>64.81814676751911</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,34 +23694,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159726</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>171.5037272356657</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>255.1805474109828</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>175.6332859899788</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>123.9711720310376</v>
       </c>
       <c r="F19" t="n">
-        <v>4.276357450236475</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,16 +23946,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>200.6953182054939</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.5120179413412</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>147.4609218293967</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>66.32593579556857</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24186,7 +24186,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>321.7031528533597</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>199.1263452822317</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.93497457133151</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,25 +24414,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>108.3081818887566</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,13 +24448,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>255.1805474109836</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>225.1165728943853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>124.4623873968216</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>249.8482490805129</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>75.40478134959579</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>90.29698444387651</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>5.60487405155159</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>106.001820158168</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>84.64068863092461</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>73.53475681667389</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>214.1238107588402</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>319.0010639722466</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>301.8736594056175</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>147.978455478377</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25368,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>153.6216279422646</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>167.8579417260427</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>26.2539909401323</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U40" t="n">
-        <v>204.7509947629276</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>345.8703416586849</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>135.8091423302598</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>195.6222482896572</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>304.9590648598693</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26076,13 +26076,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>58.65744065465137</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>362616.6230072703</v>
+        <v>423493.8314764727</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>379382.0342027747</v>
+        <v>427681.8560768751</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>408111.9599248167</v>
+        <v>459284.6695328364</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441595.0580613399</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.05806134</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271866</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871958.590027186</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.590027186</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>871958.5900271866</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116310.9922853508</v>
+        <v>134739.7207041051</v>
       </c>
       <c r="C2" t="n">
-        <v>121688.5770084371</v>
+        <v>135742.4871577226</v>
       </c>
       <c r="D2" t="n">
-        <v>130903.8362022996</v>
+        <v>145879.238643597</v>
       </c>
       <c r="E2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.830763437</v>
       </c>
       <c r="F2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="G2" t="n">
+        <v>279684.830763437</v>
+      </c>
+      <c r="H2" t="n">
         <v>279684.8307634371</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>279684.830763437</v>
-      </c>
-      <c r="I2" t="n">
-        <v>279684.8307634371</v>
       </c>
       <c r="J2" t="n">
         <v>279684.8307634371</v>
@@ -26346,13 +26346,13 @@
         <v>279684.830763437</v>
       </c>
       <c r="M2" t="n">
+        <v>279684.8307634369</v>
+      </c>
+      <c r="N2" t="n">
         <v>279684.8307634371</v>
       </c>
-      <c r="N2" t="n">
-        <v>279684.830763437</v>
-      </c>
       <c r="O2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="P2" t="n">
         <v>279684.8307634371</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.0992489056</v>
+        <v>542655.4349751307</v>
       </c>
       <c r="C3" t="n">
-        <v>23151.37050443033</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38987.52889819871</v>
+        <v>43803.80384074425</v>
       </c>
       <c r="E3" t="n">
-        <v>43838.3101621665</v>
+        <v>627134.6436336675</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>597335.6860090873</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.2279917978</v>
+        <v>38421.40650613423</v>
       </c>
       <c r="K3" t="n">
-        <v>5005.218442393725</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8241.274813353712</v>
+        <v>10295.60674904873</v>
       </c>
       <c r="M3" t="n">
-        <v>10678.49868114515</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>154949.3715668552</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063672</v>
+        <v>3530.129664575621</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37067654131212</v>
+        <v>4591.882380170622</v>
       </c>
       <c r="D4" t="n">
-        <v>105.5521581027501</v>
+        <v>4622.490350282694</v>
       </c>
       <c r="E4" t="n">
-        <v>137.800118072334</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>137.800118072334</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26456,7 +26456,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061231</v>
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583622</v>
+        <v>53719.11977902091</v>
       </c>
       <c r="C5" t="n">
-        <v>50823.37311172271</v>
+        <v>53719.11977902092</v>
       </c>
       <c r="D5" t="n">
-        <v>53538.12534878444</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161357</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161357</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404988.3722132517</v>
+        <v>-477765.1420374583</v>
       </c>
       <c r="C6" t="n">
-        <v>47632.46271574277</v>
+        <v>64890.29293767239</v>
       </c>
       <c r="D6" t="n">
-        <v>38272.6297972137</v>
+        <v>28522.23147926687</v>
       </c>
       <c r="E6" t="n">
-        <v>74309.38717687926</v>
+        <v>-426414.7957987996</v>
       </c>
       <c r="F6" t="n">
-        <v>118147.6973390458</v>
+        <v>200719.847834868</v>
       </c>
       <c r="G6" t="n">
-        <v>-392541.8427960497</v>
+        <v>200719.847834868</v>
       </c>
       <c r="H6" t="n">
-        <v>204793.8432130378</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="I6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.847834868</v>
       </c>
       <c r="J6" t="n">
-        <v>180548.6152212399</v>
+        <v>162298.4413287338</v>
       </c>
       <c r="K6" t="n">
-        <v>199788.6247706438</v>
+        <v>200719.847834868</v>
       </c>
       <c r="L6" t="n">
-        <v>196552.5683996839</v>
+        <v>190424.2410858192</v>
       </c>
       <c r="M6" t="n">
-        <v>194115.3445318926</v>
+        <v>40263.40596699062</v>
       </c>
       <c r="N6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.847834868</v>
       </c>
       <c r="O6" t="n">
-        <v>49844.47164618243</v>
+        <v>200719.847834868</v>
       </c>
       <c r="P6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.847834868</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>476.1157511985022</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011503</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="D4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663199</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663199</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>18.52443243433669</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.71341500264811</v>
+        <v>36.39307775568352</v>
       </c>
       <c r="E3" t="n">
-        <v>38.64077471175426</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>541.306759680394</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>19.44771083582145</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>32.56249654611864</v>
+        <v>40.67946607761101</v>
       </c>
       <c r="E4" t="n">
-        <v>42.85043049527758</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.8758682359733</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910197</v>
+        <v>146.8461210887092</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582157</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611864</v>
+        <v>40.67946607761135</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527758</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359731</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582145</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611864</v>
+        <v>40.67946607761101</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527758</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359733</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509207</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067742</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685626</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J2" t="n">
-        <v>156.1306178531059</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743607</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055319</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M2" t="n">
-        <v>323.011182516375</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856931</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660333</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690873</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902262</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R2" t="n">
-        <v>115.5544549841991</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497859</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704056</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9842530252663183</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440497</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149897</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>158.9352790843423</v>
+        <v>177.8597534986737</v>
       </c>
       <c r="L3" t="n">
-        <v>207.4638116110123</v>
+        <v>239.1543878358324</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7989832111205</v>
+        <v>279.0818904206855</v>
       </c>
       <c r="N3" t="n">
-        <v>224.0066613724355</v>
+        <v>278.1878331720421</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264121</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>171.5470783449033</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953988</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118424</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S3" t="n">
-        <v>18.28206825439849</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700641</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284494</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166983</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391663</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8691320296071</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>122.6794824109699</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696804</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N4" t="n">
-        <v>126.272699487823</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056598</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276155</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338899</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R4" t="n">
-        <v>37.102404305042</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S4" t="n">
-        <v>14.38036980444106</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T4" t="n">
-        <v>3.52570360359275</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.914033170647244</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H5" t="n">
-        <v>19.60209220889109</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I5" t="n">
-        <v>73.79076381137793</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J5" t="n">
-        <v>162.4511728172216</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K5" t="n">
-        <v>243.4721969307195</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L5" t="n">
-        <v>302.0487895769152</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M5" t="n">
-        <v>336.087476975413</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N5" t="n">
-        <v>341.5257237215146</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O5" t="n">
-        <v>322.493056380891</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P5" t="n">
-        <v>275.2403624805372</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q5" t="n">
-        <v>206.6940495567327</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R5" t="n">
-        <v>120.23238615567</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S5" t="n">
-        <v>43.61603087612411</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T5" t="n">
-        <v>8.378680204508314</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.024098030879797</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>9.890630982444359</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>35.25951553687022</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J6" t="n">
-        <v>96.75480562798998</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>165.3693736969364</v>
+        <v>177.8597534986737</v>
       </c>
       <c r="L6" t="n">
-        <v>222.3595307837911</v>
+        <v>239.1543878358324</v>
       </c>
       <c r="M6" t="n">
-        <v>254.246694046942</v>
+        <v>279.0818904206855</v>
       </c>
       <c r="N6" t="n">
-        <v>189.1706736602745</v>
+        <v>278.1878331720421</v>
       </c>
       <c r="O6" t="n">
-        <v>243.6589731628788</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P6" t="n">
-        <v>195.5578073177395</v>
+        <v>171.5470783449034</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.7252153102001</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>63.58391107515094</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S6" t="n">
-        <v>19.0221717577892</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T6" t="n">
-        <v>4.127833729730409</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H7" t="n">
-        <v>7.633462371674351</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I7" t="n">
-        <v>25.8195230322073</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J7" t="n">
-        <v>60.70085568968445</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K7" t="n">
-        <v>99.75015246421076</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>127.6458523786935</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M7" t="n">
-        <v>134.584654064193</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N7" t="n">
-        <v>131.3845318020392</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O7" t="n">
-        <v>121.354880321874</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P7" t="n">
-        <v>103.8400648187684</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.89347843097383</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R7" t="n">
-        <v>38.60440172832445</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S7" t="n">
-        <v>14.96252286963161</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T7" t="n">
-        <v>3.668432837103212</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049564487240804</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>20.99010230495489</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>79.01583489435116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>173.9542238989543</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>260.7122886438576</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4366478202534</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>359.8855902702221</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>365.708915369595</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995942</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>294.7299352208368</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>221.3299070215255</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>128.7459552216403</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>46.70445075299986</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896622</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.096613678243984</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>10.59097947146163</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357576</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>103.6059440484809</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908279</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432826</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>277.8568955796269</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>235.9393707926325</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>260.9122903671113</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>209.4051154534499</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342912</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>20.36911810247047</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.42012267678167</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.17398236958566</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>27.64778494743288</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305484</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>106.8133892467328</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>136.68436367301</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>144.114496931253</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6877763059667</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>129.947932395008</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>111.1929053629525</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.9842040963737</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33795173821129</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>16.02200838700991</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>3.928191936303944</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954485</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043118</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655543</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528639</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470024</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244294</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151092</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974683</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924579</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>40.6178210959085</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405032</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975329</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829654</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292673</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550075</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>21.9129264128882</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820369</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620016</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639162</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114193</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784858</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>44.4710217664791</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181394</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954485</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043118</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655543</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528639</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470024</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244294</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151092</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974683</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924579</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>40.6178210959085</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405032</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975329</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829654</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292673</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550075</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>21.9129264128882</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820369</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620016</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639162</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114193</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784858</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>44.4710217664791</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181394</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34155,7 +34155,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938014</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554463</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M2" t="n">
-        <v>92.6649492891022</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N2" t="n">
-        <v>92.6649492891022</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434661</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381774</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.09384010998329</v>
+        <v>40.01831452431469</v>
       </c>
       <c r="L3" t="n">
-        <v>68.90943183113815</v>
+        <v>100.6000080559582</v>
       </c>
       <c r="M3" t="n">
-        <v>92.6649492891022</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N3" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="O3" t="n">
-        <v>91.5825882819677</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>37.57267093057309</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.402291260945219</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5.824074272394313</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.62248565813579</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>23.38234588573897</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L5" t="n">
-        <v>66.28237460692793</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M5" t="n">
-        <v>105.7412437481403</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N5" t="n">
-        <v>112.1126601249237</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O5" t="n">
-        <v>92.39484495920428</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P5" t="n">
-        <v>44.00736672526762</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.52793472257738</v>
+        <v>40.01831452431469</v>
       </c>
       <c r="L6" t="n">
-        <v>83.8051510039169</v>
+        <v>100.6000080559582</v>
       </c>
       <c r="M6" t="n">
-        <v>112.1126601249237</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N6" t="n">
-        <v>57.82896157694119</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="O6" t="n">
-        <v>101.0627287184343</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P6" t="n">
-        <v>61.58339990340929</v>
+        <v>37.5726709305732</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.402291260945219</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5.824074272394313</v>
       </c>
       <c r="N7" t="n">
-        <v>3.698987336806027</v>
+        <v>13.62248565813579</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887707</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026619</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>129.5393570429493</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2958517730041</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>115.2303470779075</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>63.49693946556727</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646886</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340837</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7228616576086</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>104.5976587092992</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3160459226669</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911962</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.799687391771755</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>5.188712983647946</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>13.00223184073349</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868052</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788333</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>112.184017997302</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197546</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405812</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>85.8349965691599</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065975</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781469</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>117.596605360629</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755146</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848229</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855694</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764996</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646077</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061152</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520826</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400524</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868052</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788333</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>112.184017997302</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197546</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405812</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>85.8349965691599</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065975</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781469</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>117.596605360629</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755146</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0910091848229</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855694</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764996</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646077</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061152</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520826</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400524</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
